--- a/labor.xlsx
+++ b/labor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>Agri</t>
   </si>
@@ -574,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B47" sqref="B47:AC64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4215,6 +4215,2198 @@
       </c>
       <c r="AC43">
         <v>5.7369814651368048E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1">
+        <f>B22/B2</f>
+        <v>5.5896578296436576</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ref="C47:AC56" si="0">C22/C2</f>
+        <v>6.2679076022106441</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1341389604440089</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5364216277659271</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>11.366527415722196</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>13.642255318180196</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>22.269875041750176</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2680601935375826</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2121661024256447</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7153751133390358</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1619258245445669</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5809544414814614</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="0"/>
+        <v>9.274585954483376</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="0"/>
+        <v>11.25717178390048</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4247590779747585</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4015306808376424</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5098997654237181</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5311951198987908</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6260428020227842</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="0"/>
+        <v>11.122518196220073</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="0"/>
+        <v>16.29703011947586</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0796520961106335</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0435001265771726</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9502667168579855</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6020872469086873</v>
+      </c>
+      <c r="AA47" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9884791855680453</v>
+      </c>
+      <c r="AB47" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0429732118644015</v>
+      </c>
+      <c r="AC47" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8544621087466044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" ref="B48:Q64" si="1">B23/B3</f>
+        <v>8.6654979774176759</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7165208231199713</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>12.731115117029637</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>15.16575092081804</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>18.256925453255374</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="1"/>
+        <v>21.950042819522004</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>36.211965634777386</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5405394399031698</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9999965589847006</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="1"/>
+        <v>10.497793126888416</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="1"/>
+        <v>11.482332647727977</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="1"/>
+        <v>13.896451228528301</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="1"/>
+        <v>15.089508927185266</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="1"/>
+        <v>17.869692077964288</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5480002427472481</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="1"/>
+        <v>7.041301413385022</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8116714423699953</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="0"/>
+        <v>12.191671072446782</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="0"/>
+        <v>14.047482032834589</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="0"/>
+        <v>18.167976577303165</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="0"/>
+        <v>27.461773874202745</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7680681175358597</v>
+      </c>
+      <c r="X48" s="1">
+        <f t="shared" si="0"/>
+        <v>6.313416960744834</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0887264699982744</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5483479054601723</v>
+      </c>
+      <c r="AA48" s="1">
+        <f t="shared" si="0"/>
+        <v>11.663726776980793</v>
+      </c>
+      <c r="AB48" s="1">
+        <f t="shared" si="0"/>
+        <v>13.138645178834144</v>
+      </c>
+      <c r="AC48" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="1"/>
+        <v>8.000393037730019</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9711617186874903</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>11.642270545067166</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>13.649336600000847</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>16.268739441911169</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>19.52595450256068</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>31.874536629104146</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1088102523741661</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4600948158568912</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6116152258157204</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="0"/>
+        <v>10.250756531026861</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="0"/>
+        <v>12.281790811349765</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="0"/>
+        <v>13.274575145650317</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="0"/>
+        <v>16.112220373637733</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9018060708518618</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2998445499790883</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8862365220477857</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="0"/>
+        <v>10.779286110052587</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="0"/>
+        <v>12.346325102490884</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="0"/>
+        <v>15.919492722283019</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="0"/>
+        <v>23.325693678792319</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4078596470948685</v>
+      </c>
+      <c r="X49" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7874008117578732</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0852421710725757</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0181830753997332</v>
+      </c>
+      <c r="AA49" s="1">
+        <f t="shared" si="0"/>
+        <v>10.002504969808507</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" si="0"/>
+        <v>11.51178638262928</v>
+      </c>
+      <c r="AC49" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8106883468565584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7296020237179253</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7888530132484153</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>12.703424448222764</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>14.893427840837973</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>17.75158046431968</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>21.305679750571525</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>34.779793711415991</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6656078132837759</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1400574314921048</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="0"/>
+        <v>10.487681708983363</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="0"/>
+        <v>11.185078599998603</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="0"/>
+        <v>13.401234841339706</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="0"/>
+        <v>14.484508137158258</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="0"/>
+        <v>17.580795208057079</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3485892498254604</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8740542462411041</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6050405245990067</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="0"/>
+        <v>11.761781877062457</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="0"/>
+        <v>13.471651216621261</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="0"/>
+        <v>17.370501077836469</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="0"/>
+        <v>25.451752405502429</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8096212666148848</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3149029804069494</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7310382256764827</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7490135636399238</v>
+      </c>
+      <c r="AA50" s="1">
+        <f t="shared" si="0"/>
+        <v>10.914199741799685</v>
+      </c>
+      <c r="AB50" s="1">
+        <f t="shared" si="0"/>
+        <v>12.56104709212166</v>
+      </c>
+      <c r="AC50" s="1">
+        <f t="shared" si="0"/>
+        <v>10.704899677164462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4843284987953496</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7857772261849867</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6152254482240647</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2384712532390516</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0518634327599869</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>6.063312765775879</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8978661873401776</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8969432291806982</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3165519578032203</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9846545678866314</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1831244370299374</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8138129945596235</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1220981504549448</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0032602228823233</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5221372825003814</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9562643084763125</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4488799547181932</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.347246510712766</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8338525573505202</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9434133135481977</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2432298372226365</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3687541709919349</v>
+      </c>
+      <c r="X51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7971373034793923</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2001505380361341</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4898527645869284</v>
+      </c>
+      <c r="AA51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.106035920816216</v>
+      </c>
+      <c r="AB51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.574706748473031</v>
+      </c>
+      <c r="AC51" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0464719093114234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9017270637765851</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1386577834493843</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9183977170425459</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5129763298742844</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2392862634125681</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>13.125517973654619</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>23.260109173846455</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.309812367557968</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3840800674654736</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7702617402367951</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0859884683963688</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2607796441829549</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7773831829602327</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2186608797562473</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0023717541289607</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3084337696005304</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6460812801208058</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9792372000433103</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0162223624666771</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6742238787059325</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="0"/>
+        <v>12.415780119313304</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92580337538948143</v>
+      </c>
+      <c r="X52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1420490086996185</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2876272956379</v>
+      </c>
+      <c r="Z52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5478371974820764</v>
+      </c>
+      <c r="AA52" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1967170455642431</v>
+      </c>
+      <c r="AB52" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7753040410386505</v>
+      </c>
+      <c r="AC52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7721851787236913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6665089378555944</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>10.684294164635656</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>15.750606141008092</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>18.438035918004044</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>22.190734710784163</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>27.818726758559986</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>46.950658780234477</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2583811258206623</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1518892507741789</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="0"/>
+        <v>12.765803944769944</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="0"/>
+        <v>13.340963558217791</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="0"/>
+        <v>15.793315367292712</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="0"/>
+        <v>15.01136827642167</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="0"/>
+        <v>19.572120740629586</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="0"/>
+        <v>6.167610140086131</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6510159276266902</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>10.780315250978825</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="0"/>
+        <v>14.332919960913605</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="0"/>
+        <v>17.028299634404636</v>
+      </c>
+      <c r="U53" s="1">
+        <f t="shared" si="0"/>
+        <v>23.631033926079677</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="0"/>
+        <v>37.574456473604293</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9334645179175682</v>
+      </c>
+      <c r="X53" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1992660668190211</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4404525402369828</v>
+      </c>
+      <c r="Z53" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7171454957542807</v>
+      </c>
+      <c r="AA53" s="1">
+        <f t="shared" si="0"/>
+        <v>13.101231111952833</v>
+      </c>
+      <c r="AB53" s="1">
+        <f t="shared" si="0"/>
+        <v>13.987920524884927</v>
+      </c>
+      <c r="AC53" s="1">
+        <f t="shared" si="0"/>
+        <v>14.329152669121825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9504160873046636</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7310198324086814</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6289755673130148</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9885156507204211</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>13.32859590860517</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>17.05505889344958</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>30.414539801850882</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2496182087793111</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0528842910320506</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2911114909500334</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0647953515366204</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1740691037518669</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="0"/>
+        <v>10.536939018171736</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="0"/>
+        <v>17.072475982551424</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8413929631544468</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7290246754614436</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7676247262282958</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4178311189485449</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6714883189048244</v>
+      </c>
+      <c r="U54" s="1">
+        <f t="shared" si="0"/>
+        <v>13.08154622504515</v>
+      </c>
+      <c r="V54" s="1">
+        <f t="shared" si="0"/>
+        <v>21.180989324941301</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9026744101551154</v>
+      </c>
+      <c r="X54" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6154003743269634</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2281941682125153</v>
+      </c>
+      <c r="Z54" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0767494908356312</v>
+      </c>
+      <c r="AA54" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9182490462944406</v>
+      </c>
+      <c r="AB54" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6033695303615687</v>
+      </c>
+      <c r="AC54" s="1">
+        <f t="shared" si="0"/>
+        <v>6.193334504647626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9083331997797712</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3825708337559623</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6874546384804576</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6679418295039863</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9475663482439183</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5387733927382197</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>15.57127370463172</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9842616241368085</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6443879825423098</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6954436755050857</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0076754834583648</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9998715756054928</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4848642447992857</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8711040209499039</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3946187787579127</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0775852501267842</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8525657270933737</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2658715109572789</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0313977158090557</v>
+      </c>
+      <c r="U55" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7769531617667527</v>
+      </c>
+      <c r="V55" s="1">
+        <f t="shared" si="0"/>
+        <v>11.395013042832161</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1533172329741457</v>
+      </c>
+      <c r="X55" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8272474397637213</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4612658497012618</v>
+      </c>
+      <c r="Z55" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9170239471620536</v>
+      </c>
+      <c r="AA55" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8864002143520677</v>
+      </c>
+      <c r="AB55" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6237108221833569</v>
+      </c>
+      <c r="AC55" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8714458636445874</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5592613197211591</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2515791592463756</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3782356842422185</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>10.236211646114668</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>12.802064623761996</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>22.34921171325718</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8193430694139292</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6956388450128177</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9575354429623602</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4632416278380855</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8957544893572154</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8549307510040158</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="0"/>
+        <v>10.838734028840067</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9946895339709467</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7989154852760829</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7951213844777651</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5465727367818829</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7704572336905189</v>
+      </c>
+      <c r="U56" s="1">
+        <f t="shared" si="0"/>
+        <v>10.631859525370354</v>
+      </c>
+      <c r="V56" s="1">
+        <f t="shared" si="0"/>
+        <v>16.808515256614459</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5649062831806053</v>
+      </c>
+      <c r="X56" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5012974574298226</v>
+      </c>
+      <c r="Y56" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3985678582111598</v>
+      </c>
+      <c r="Z56" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9670176679132547</v>
+      </c>
+      <c r="AA56" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4131468545991126</v>
+      </c>
+      <c r="AB56" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6634545321647121</v>
+      </c>
+      <c r="AC56" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9727068225522935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1228920873166031</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:AC64" si="2">C32/C12</f>
+        <v>5.6301649608821167</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2317937012227897</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5662223946258926</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>10.288950975070801</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="2"/>
+        <v>12.176380599275754</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="2"/>
+        <v>19.679473088516779</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9775515714043701</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7689476681424905</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0679736683709935</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5218090467180927</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8877923534399441</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4071247877634327</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7516688564458462</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0286470954616056</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7808808082223724</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7606268213848351</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7011053583205111</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="2"/>
+        <v>7.758290416708606</v>
+      </c>
+      <c r="U57" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8667803918279198</v>
+      </c>
+      <c r="V57" s="1">
+        <f t="shared" si="2"/>
+        <v>14.42803839548572</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7534431856775123</v>
+      </c>
+      <c r="X57" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5065768070989192</v>
+      </c>
+      <c r="Y57" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2845697939212855</v>
+      </c>
+      <c r="Z57" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9823428307208459</v>
+      </c>
+      <c r="AA57" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3261830902962757</v>
+      </c>
+      <c r="AB57" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2350937518187566</v>
+      </c>
+      <c r="AC57" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8489785295188472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5758855772079565</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0097839755328915</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2036727610411422</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1007585072655788</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2715365926810289</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7273936114939321</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="2"/>
+        <v>14.246762037148633</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7304166648246166</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3343918643521442</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2960434690617122</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5817164559167258</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4895151297531664</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9332537267897241</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2015782448651811</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.190929564130883</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8158020685586456</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5248617542473495</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8179500121748724</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5183596177475147</v>
+      </c>
+      <c r="U58" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1154359734094763</v>
+      </c>
+      <c r="V58" s="1">
+        <f t="shared" si="2"/>
+        <v>10.425739236935101</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9701534242217316</v>
+      </c>
+      <c r="X58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5867582998345404</v>
+      </c>
+      <c r="Y58" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1668463250591374</v>
+      </c>
+      <c r="Z58" s="1">
+        <f t="shared" si="2"/>
+        <v>3.583837078943072</v>
+      </c>
+      <c r="AA58" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4707570101628029</v>
+      </c>
+      <c r="AB58" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1453510720546864</v>
+      </c>
+      <c r="AC58" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3850219353673729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>8.374912804653265</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3911257604625913</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="2"/>
+        <v>12.187276325462369</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="2"/>
+        <v>14.288298503244999</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>17.030322588537221</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="2"/>
+        <v>20.440016586106498</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="2"/>
+        <v>33.36666882471259</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3947799767499403</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8093217798927448</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="2"/>
+        <v>10.061560606892876</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="2"/>
+        <v>10.730621823729582</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="2"/>
+        <v>12.856734243550427</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="2"/>
+        <v>13.895993464238915</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="2"/>
+        <v>16.866476444619831</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1312727056160066</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5947571000730401</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2554123175630707</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="2"/>
+        <v>11.283893284037296</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="2"/>
+        <v>12.924289557229161</v>
+      </c>
+      <c r="U59" s="1">
+        <f t="shared" si="2"/>
+        <v>16.664726697135013</v>
+      </c>
+      <c r="V59" s="1">
+        <f t="shared" si="2"/>
+        <v>24.417631702175115</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6142033304457994</v>
+      </c>
+      <c r="X59" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0583245017427299</v>
+      </c>
+      <c r="Y59" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4169212815850987</v>
+      </c>
+      <c r="Z59" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3935356415029929</v>
+      </c>
+      <c r="AA59" s="1">
+        <f t="shared" si="2"/>
+        <v>10.47074894385759</v>
+      </c>
+      <c r="AB59" s="1">
+        <f t="shared" si="2"/>
+        <v>12.050683850861141</v>
+      </c>
+      <c r="AC59" s="1">
+        <f t="shared" si="2"/>
+        <v>10.269952872448398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3325158493643157</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8466590278054387</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7725253454634649</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="2"/>
+        <v>10.240502157023176</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>13.506507001612325</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="2"/>
+        <v>16.650053708773875</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="2"/>
+        <v>26.949927903991007</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9503980589716607</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8403057044464619</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3916998414920316</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1278492850675477</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6344740709006214</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="2"/>
+        <v>10.625623173288341</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="2"/>
+        <v>13.127232430805577</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8931227603951468</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6296789731746819</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="2"/>
+        <v>4.860176800638901</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7428153635513857</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6088724765719515</v>
+      </c>
+      <c r="U60" s="1">
+        <f t="shared" si="2"/>
+        <v>12.700675407125903</v>
+      </c>
+      <c r="V60" s="1">
+        <f t="shared" si="2"/>
+        <v>18.538017793556918</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5965404615995062</v>
+      </c>
+      <c r="X60" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4308011084352503</v>
+      </c>
+      <c r="Y60" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3557395228017199</v>
+      </c>
+      <c r="Z60" s="1">
+        <f t="shared" si="2"/>
+        <v>5.300118347079354</v>
+      </c>
+      <c r="AA60" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3664106737769162</v>
+      </c>
+      <c r="AB60" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9398076514014715</v>
+      </c>
+      <c r="AC60" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3310209602785861</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8999836523120952</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="2"/>
+        <v>4.226034825638739</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3561009508240396</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0007036711465593</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9845666837550695</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="2"/>
+        <v>11.4852990106516</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="2"/>
+        <v>19.614931778768312</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1374051281675106</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7247462049882212</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5526168231125412</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9193308839193808</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4702955354558789</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7549491595982261</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5967218172361353</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7988071141168447</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2029809689410915</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="2"/>
+        <v>2.871559179226058</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9509690088653429</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2298910328566031</v>
+      </c>
+      <c r="U61" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6522195050231261</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="2"/>
+        <v>13.748619712305358</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" si="2"/>
+        <v>1.609827634751958</v>
+      </c>
+      <c r="X61" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0233471775552769</v>
+      </c>
+      <c r="Y61" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3802484847720944</v>
+      </c>
+      <c r="Z61" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0172504089647099</v>
+      </c>
+      <c r="AA61" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4657628253234503</v>
+      </c>
+      <c r="AB61" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7306105881924747</v>
+      </c>
+      <c r="AC61" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8495972697885694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4582545524533996</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2418999588235398</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3981316160322397</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="2"/>
+        <v>11.018319952432694</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>13.132812359080328</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="2"/>
+        <v>15.762173678524716</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="2"/>
+        <v>25.730469780852445</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9312891799705136</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="2"/>
+        <v>6.02210304906618</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7589010309632691</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2748428383937753</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="2"/>
+        <v>9.91437933681636</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="2"/>
+        <v>10.715796706733499</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="2"/>
+        <v>13.006463568407726</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9569445179789504</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0855001189035569</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="2"/>
+        <v>6.366102600215541</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7014941971147266</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9664741373575261</v>
+      </c>
+      <c r="U62" s="1">
+        <f t="shared" si="2"/>
+        <v>12.850885682936944</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" si="2"/>
+        <v>18.829483336600749</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5582101401987059</v>
+      </c>
+      <c r="X62" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6718339290506616</v>
+      </c>
+      <c r="Y62" s="1">
+        <f t="shared" si="2"/>
+        <v>5.719506190604287</v>
+      </c>
+      <c r="Z62" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4726154208791034</v>
+      </c>
+      <c r="AA62" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0744437120219796</v>
+      </c>
+      <c r="AB62" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2927992989680774</v>
+      </c>
+      <c r="AC62" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9196012470863861</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6944214045785388</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8871129504676563</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7230113228103003</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9182034865381663</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6511739566746568</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="2"/>
+        <v>8.432667780492423</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="2"/>
+        <v>14.056482091398955</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2104943298288937</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4189011951523369</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9462915245566887</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2390432272691085</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3761331050354704</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1382914942014075</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9720944395133904</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8226800154272609</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1859902130852507</v>
+      </c>
+      <c r="R63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7214101289839712</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1367421754585054</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9037683845128699</v>
+      </c>
+      <c r="U63" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6568195852066667</v>
+      </c>
+      <c r="V63" s="1">
+        <f t="shared" si="2"/>
+        <v>10.350953352396258</v>
+      </c>
+      <c r="W63" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9486734684951632</v>
+      </c>
+      <c r="X63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2614471025435923</v>
+      </c>
+      <c r="Y63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4987369413353848</v>
+      </c>
+      <c r="Z63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7617420577066283</v>
+      </c>
+      <c r="AA63" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5342656195197937</v>
+      </c>
+      <c r="AB63" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2256887716144345</v>
+      </c>
+      <c r="AC63" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9266415804743207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7255725502220689</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9856838051105963</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0357218015465817</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8539828024831086</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2466788609202624</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="2"/>
+        <v>12.401049459633299</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="2"/>
+        <v>22.094467424075866</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1626527317529285</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4846407028423543</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2254195053185812</v>
+      </c>
+      <c r="L64" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3416782776842222</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6606029695994806</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7041438420202537</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="2"/>
+        <v>10.087238304791203</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="2"/>
+        <v>1.582526389524066</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9318715497486392</v>
+      </c>
+      <c r="R64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4214490005566618</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2703098721961696</v>
+      </c>
+      <c r="T64" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8695779129734911</v>
+      </c>
+      <c r="U64" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9403249349136775</v>
+      </c>
+      <c r="V64" s="1">
+        <f t="shared" si="2"/>
+        <v>15.586699743589319</v>
+      </c>
+      <c r="W64" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4358059910122414</v>
+      </c>
+      <c r="X64" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7471701730678089</v>
+      </c>
+      <c r="Y64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1362062202228542</v>
+      </c>
+      <c r="Z64" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1244482713593622</v>
+      </c>
+      <c r="AA64" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2958386177295464</v>
+      </c>
+      <c r="AB64" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6183276664747046</v>
+      </c>
+      <c r="AC64" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8655498733053815</v>
       </c>
     </row>
   </sheetData>
